--- a/biology/Botanique/Amanita_virosa/Amanita_virosa.xlsx
+++ b/biology/Botanique/Amanita_virosa/Amanita_virosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amanita virosa
-Amanita virosa, de son nom vernaculaire l'Amanite vireuse, aussi appelée Ange de la mort[1] est un champignon basidiomycète mortel du genre Amanita, de la famille des Amanitaceae.
+Amanita virosa, de son nom vernaculaire l'Amanite vireuse, aussi appelée Ange de la mort est un champignon basidiomycète mortel du genre Amanita, de la famille des Amanitaceae.
 </t>
         </is>
       </c>
@@ -514,11 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nom binomial accepté
-Selon Index Fungorum                                      (22 sept. 2015)[2] :
-Amanita virosa Bertill. 1866
-Synonymes
-Selon BioLib                    (22 sept. 2015)[3] :
+          <t>Nom binomial accepté</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Index Fungorum                                      (22 sept. 2015) :
+Amanita virosa Bertill. 1866</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Amanita_virosa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanita_virosa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (22 sept. 2015) :
 Agaricus virosus Fr. 1838
 Agaricus virosus var. virosus Fr. 1838
 Amanita phalloides subsp. virosa (Fr.) Gilbert
@@ -526,37 +577,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Amanita_virosa</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Amanita_virosa</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Caractéristiques</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entièrement blanc, le chapeau (jusqu'à 8-10 cm) est blanc souvent dissymétrique et de forme irrégulière. Les lames sont blanches, le pied élancé et pelucheux peut mesurer 10 à 15 cm de longueur pour 1,5 à 2 cm de diamètre. Le pied bulbeux est pourvu d'un anneau blanc membraneux et fragile donc souvent déchiré. À la base du pied se trouve la volve membraneuse, en forme de sac.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -578,12 +598,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Amanite vireuse pousse en forêt de l'été à la fin de l'automne plutôt sous conifères, mais parfois aussi sous feuillus (bouleaux).
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entièrement blanc, le chapeau (jusqu'à 8-10 cm) est blanc souvent dissymétrique et de forme irrégulière. Les lames sont blanches, le pied élancé et pelucheux peut mesurer 10 à 15 cm de longueur pour 1,5 à 2 cm de diamètre. Le pied bulbeux est pourvu d'un anneau blanc membraneux et fragile donc souvent déchiré. À la base du pied se trouve la volve membraneuse, en forme de sac.
 </t>
         </is>
       </c>
@@ -609,14 +631,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Syndrome phalloïdien</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Amanite vireuse est mortelle, aussi toxique que l'amanite phalloïde, son ingestion entraîne les mêmes symptômes, car la substance toxique est la même : l'amanitine[Laquelle ?].
-Un seul exemplaire de taille moyenne suffit pour tuer un homme.
-Les symptômes apparaissent après une longue période de latence. Entre 4 et 16 heures après l'ingestion apparaissent de fortes nausées[4], des douleurs gastriques violentes, des diarrhées, et des vomissements. Puis 6 jours après l'ingestion se déclare le 2e stade de l'intoxication qui est une destruction du foie. Environ 60 % des victimes meurent.
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Amanite vireuse pousse en forêt de l'été à la fin de l'automne plutôt sous conifères, mais parfois aussi sous feuillus (bouleaux).
 </t>
         </is>
       </c>
@@ -642,10 +664,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Syndrome phalloïdien</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Amanite vireuse est mortelle, aussi toxique que l'amanite phalloïde, son ingestion entraîne les mêmes symptômes, car la substance toxique est la même : l'amanitine[Laquelle ?].
+Un seul exemplaire de taille moyenne suffit pour tuer un homme.
+Les symptômes apparaissent après une longue période de latence. Entre 4 et 16 heures après l'ingestion apparaissent de fortes nausées, des douleurs gastriques violentes, des diarrhées, et des vomissements. Puis 6 jours après l'ingestion se déclare le 2e stade de l'intoxication qui est une destruction du foie. Environ 60 % des victimes meurent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Amanita_virosa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanita_virosa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Amanite vireuse avec l'Amanite citrine : (variété blanche) l'amanite citrine a une odeur de radis, ou pomme de terre crue, que l'amanite vireuse n'a pas du tout.
 Amanite vireuse avec les agarics : les agarics ont, sur des exemplaires adultes, des lames roses, l'amanite vireuse est entièrement blanche.</t>
